--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Fultola/Draft_Drawing/Fultola Input.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Fultola/Draft_Drawing/Fultola Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7668" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="18" r:id="rId1"/>
@@ -1037,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2888"/>
   <sheetViews>
-    <sheetView topLeftCell="A655" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E819" sqref="E819"/>
+    <sheetView tabSelected="1" topLeftCell="A795" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G801" sqref="G801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
